--- a/TEACHING/BCB520/posts/Syllabus/Schedule.xlsx
+++ b/TEACHING/BCB520/posts/Syllabus/Schedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/Syllabus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/TEACHING/BCB520/posts/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3B09B-DA5E-6541-AB27-12A0DE932E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11AFA99-B66F-A747-B191-DFA6B76CCC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1740" windowWidth="30940" windowHeight="17880" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
+    <workbookView xWindow="46900" yWindow="4060" windowWidth="30940" windowHeight="17880" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>DATE</t>
   </si>
@@ -44,72 +44,36 @@
     <t>TOPIC</t>
   </si>
   <si>
-    <t>READING</t>
-  </si>
-  <si>
-    <t>VAD Ch 1.</t>
-  </si>
-  <si>
-    <t>VAD Ch 2.</t>
-  </si>
-  <si>
-    <t>VAD Ch 3.</t>
-  </si>
-  <si>
     <t>MARKS. Geometric elements to depict data</t>
   </si>
   <si>
-    <t>VAD Ch 5.</t>
-  </si>
-  <si>
     <t>CHANNELS. Controlling the appearance of marks.</t>
   </si>
   <si>
     <t>RULES OF THUMB.</t>
   </si>
   <si>
-    <t>VAD Ch. 6.</t>
-  </si>
-  <si>
     <t>TABULAR DATA I</t>
   </si>
   <si>
-    <t>VAD Ch. 7.</t>
-  </si>
-  <si>
     <t>TABULAR DATA II</t>
   </si>
   <si>
-    <t>Midterm Assignment Presentations</t>
-  </si>
-  <si>
     <t>SPATIAL DATA I: Geographic Maps</t>
   </si>
   <si>
-    <t>VAD Ch 8.</t>
-  </si>
-  <si>
     <t>SPATIAL DATA II:  Spatial Fields</t>
   </si>
   <si>
     <t>NETWORK DATA I</t>
   </si>
   <si>
-    <t>VAD Ch 9.</t>
-  </si>
-  <si>
     <t>NETWORK DATA II</t>
   </si>
   <si>
     <t>COLOR I</t>
   </si>
   <si>
-    <t>VAD Ch 10.</t>
-  </si>
-  <si>
-    <t>SPRING BREAK</t>
-  </si>
-  <si>
     <t>COLOR II</t>
   </si>
   <si>
@@ -119,101 +83,65 @@
     <t>INTERACTIVITY</t>
   </si>
   <si>
-    <t>VAD Ch 11.</t>
-  </si>
-  <si>
     <t>MULTIPLE VIEWS</t>
   </si>
   <si>
-    <t>VAD Ch 12.</t>
-  </si>
-  <si>
     <t>AGGREGATION</t>
   </si>
   <si>
-    <t>VAD Ch 13.</t>
-  </si>
-  <si>
     <t>FILTERING</t>
   </si>
   <si>
     <t>EMBEDDING: Focus and Context</t>
   </si>
   <si>
-    <t>VAD Ch 14.</t>
-  </si>
-  <si>
-    <t>FINAL PROJECT PRESENTATIONS</t>
-  </si>
-  <si>
     <t>DEAD WEEK</t>
   </si>
   <si>
     <t>FINALS WEEK</t>
   </si>
   <si>
-    <t>Barrie in NV</t>
-  </si>
-  <si>
-    <t>No Class</t>
-  </si>
-  <si>
-    <t>TURN IN</t>
-  </si>
-  <si>
-    <t>RECEIVE</t>
-  </si>
-  <si>
-    <t>Assignment 6 - Spatial things</t>
-  </si>
-  <si>
-    <t>Assignment 7 - Network things</t>
-  </si>
-  <si>
-    <t>Assignment 8 - Find some stuff for critique</t>
-  </si>
-  <si>
-    <t>Assignment 10 - Cool interactive stuff</t>
-  </si>
-  <si>
-    <t>Assignment 9 - Let's practice Observable!</t>
-  </si>
-  <si>
-    <t>Assignment 11 - Data Science Competition</t>
-  </si>
-  <si>
-    <t>Portfolio Review</t>
-  </si>
-  <si>
-    <t>[Assignment 1](/BCB520/posts/A1-Lit-Prog) - Fun with literate programming.</t>
-  </si>
-  <si>
-    <t>[INTRODUCTION](/BCB520/posts/L1-Intro).  Why Visualization Matters</t>
-  </si>
-  <si>
-    <t>[Assignment 2](/BCB520/posts/A2-YourData) - You'll need some data…</t>
-  </si>
-  <si>
-    <t>[WHAT?  Abstraction of Data](/BCB/posts/L2-Data-Abstraction)</t>
-  </si>
-  <si>
-    <t>Working Session</t>
-  </si>
-  <si>
-    <t>[WHY?  Task Abstraction](/BCB/posts/L3-TaskAbstraction)</t>
-  </si>
-  <si>
-    <t>[Assignment 3](/BCB520/posts/A3-PrototypeVizPortfolio) - Data Science Portfolio</t>
-  </si>
-  <si>
-    <t>Portfolio Review - Action/Target Pairs</t>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>Introduction and Overview</t>
+  </si>
+  <si>
+    <t>Spring Recess</t>
+  </si>
+  <si>
+    <t>WHAT?  Abstraction of Data</t>
+  </si>
+  <si>
+    <t>WHY?  Task Abstraction</t>
+  </si>
+  <si>
+    <t>Why Viz matters</t>
+  </si>
+  <si>
+    <t>Barrie in Vermont</t>
+  </si>
+  <si>
+    <t>[Tutorial 1](posts/T1-Lit-Prog/index.qmd)</t>
+  </si>
+  <si>
+    <t>[Literate Programming](posts/T1-Lit-Prog/index.qmd)</t>
+  </si>
+  <si>
+    <t>Midterm Presentations</t>
+  </si>
+  <si>
+    <t>Final Presentations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +161,11 @@
       <color rgb="FF191919"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,14 +265,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -676,23 +610,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90294B86-752E-134F-B90D-0C8028D11200}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,449 +633,413 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="2">
-        <v>44938</v>
+        <v>45302</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="2">
-        <v>44943</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>45307</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="2">
-        <v>44945</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+        <v>45309</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="2">
-        <v>44950</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
+        <f>A3+7</f>
+        <v>45314</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="2">
-        <v>44952</v>
+        <f>A4+7</f>
+        <v>45316</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="2">
-        <v>44957</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
+        <f t="shared" ref="A7:A28" si="0">A5+7</f>
+        <v>45321</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="20">
       <c r="A9" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>45328</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="20">
       <c r="A10" s="2">
-        <v>44966</v>
+        <f t="shared" si="0"/>
+        <v>45330</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" s="2">
-        <v>44971</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>45335</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" s="2">
-        <v>44973</v>
+        <f t="shared" si="0"/>
+        <v>45337</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" s="2">
-        <v>44978</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>45342</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="20">
       <c r="A14" s="2">
-        <v>44980</v>
+        <f t="shared" si="0"/>
+        <v>45344</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>45349</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>45351</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>45356</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>45358</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>44985</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44987</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44992</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44994</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20">
       <c r="A19" s="2">
-        <v>44999</v>
+        <f t="shared" si="0"/>
+        <v>45363</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" ht="20">
       <c r="A20" s="2">
-        <v>45001</v>
+        <f t="shared" si="0"/>
+        <v>45365</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="20">
       <c r="A21" s="2">
-        <v>45006</v>
+        <f t="shared" si="0"/>
+        <v>45370</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" ht="20">
       <c r="A22" s="2">
-        <v>45008</v>
+        <f t="shared" si="0"/>
+        <v>45372</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="20">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>45377</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="20">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>45379</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="20">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>45384</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="20">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>45386</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="20">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>45391</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="20">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>45393</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="20">
+      <c r="A29" s="2">
+        <f>A27+7</f>
+        <v>45398</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="20">
+      <c r="A30" s="2">
+        <f>A28+7</f>
+        <v>45400</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="20">
+      <c r="A31" s="2">
+        <f t="shared" ref="A31:A35" si="1">A29+7</f>
+        <v>45405</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>45013</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="20">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>45407</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="20">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>45412</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45015</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="20">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>45414</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="20">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>45419</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>45020</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>45027</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>45029</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>45034</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>45036</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>45043</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>45048</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>45050</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>45055</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="20">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="20">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="20">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="20">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="20">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="20">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="20">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="20">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="20">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="20">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="20">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="20">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="20">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" ht="20">
+      <c r="A49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
